--- a/data/trans_dic/P25A_10_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_10_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por varices en las piernas</t>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,7 +720,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,7 +735,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,22 +745,52 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -724,17 +803,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +823,72 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>1,54; 11,84</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,5</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 7,35</t>
         </is>
       </c>
     </row>
@@ -796,17 +905,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,42 +925,72 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,3</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,94</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,6; 5,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>1,05; 5,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 51,3</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,54</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,57; 5,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,05</t>
+          <t>2,23; 10,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 37,56</t>
+          <t>2,51; 10,28</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 3,09</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,81</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 1,88</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,64</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 5,98</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 6,12</t>
         </is>
       </c>
     </row>
@@ -936,7 +1105,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,52 +1115,82 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,28</t>
+          <t>0,37; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,08</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,98</t>
+          <t>1,05; 6,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,15</t>
+          <t>0,31; 3,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,25</t>
+          <t>1,23; 4,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 30,33</t>
+          <t>1,06; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,35</t>
+          <t>1,07; 4,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,42</t>
+          <t>1,2; 5,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,34</t>
+          <t>4,09; 11,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 26,49</t>
+          <t>4,29; 10,58</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 3,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 2,21</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 2,28</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,37</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 7,35</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 6,43</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,61</t>
+          <t>0,61; 3,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,77</t>
+          <t>0,53; 3,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 41,58</t>
+          <t>0,51; 5,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,23</t>
+          <t>2,11; 7,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,18</t>
+          <t>0,29; 3,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,52</t>
+          <t>2,23; 6,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 33,03</t>
+          <t>2,2; 6,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,79</t>
+          <t>2,39; 6,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,13</t>
+          <t>2,58; 8,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,27</t>
+          <t>7,15; 15,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 32,14</t>
+          <t>4,36; 10,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 3,83</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 4,43</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 4,36</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 5,49</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 10,04</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 5,86</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>5,35%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,02</t>
+          <t>0,69; 4,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,27</t>
+          <t>0,7; 4,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 39,38</t>
+          <t>1,03; 6,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 13,18</t>
+          <t>3,72; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,91</t>
+          <t>0,39; 3,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,41</t>
+          <t>6,0; 13,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,09; 48,49</t>
+          <t>2,82; 8,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,25</t>
+          <t>1,68; 7,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,62</t>
+          <t>7,02; 15,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,98</t>
+          <t>7,06; 15,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,92; 42,37</t>
+          <t>6,93; 16,41</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 7,59</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 5,63</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 4,94</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 9,72</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 12,03</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 9,47</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,79</t>
+          <t>1,01; 6,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,39</t>
+          <t>2,56; 12,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,06</t>
+          <t>0,68; 6,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,68; 65,52</t>
+          <t>0,94; 7,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 16,15</t>
+          <t>1,22; 8,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,59</t>
+          <t>1,2; 7,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,32</t>
+          <t>6,8; 16,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 38,97</t>
+          <t>5,22; 12,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,63</t>
+          <t>5,48; 16,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,39</t>
+          <t>4,66; 13,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,34</t>
+          <t>6,55; 17,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 38,38</t>
+          <t>8,36; 21,18</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 10,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 10,5</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 10,79</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 9,12</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 12,49</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 13,19</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,66</t>
+          <t>0,6; 1,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,71</t>
+          <t>0,97; 2,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,9</t>
+          <t>0,71; 1,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 31,14</t>
+          <t>0,85; 2,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,44</t>
+          <t>2,19; 4,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,53</t>
+          <t>0,9; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,75</t>
+          <t>3,94; 6,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,97; 30,78</t>
+          <t>2,68; 4,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,87</t>
+          <t>2,8; 5,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,34</t>
+          <t>3,84; 6,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,06</t>
+          <t>6,37; 9,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,86; 29,07</t>
+          <t>6,82; 10,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 3,9</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 3,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 3,38</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 4,17</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 6,63</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 6,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2802</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23943</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2802</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>23943</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13850</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7282; 56098</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15398</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7760; 69456</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2953</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3293</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4817</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11423</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13955</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4086</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2271</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27281</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>16908</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8903</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2802</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>38704</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17327</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20193</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13923</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2351</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3458; 32785</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5429; 30837</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10144</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14348</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>269; 2602</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1019; 4585</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12691; 51939</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7449; 33669</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19341</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2427; 20913</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>261; 2560</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1201; 5663</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>17955; 66266</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8302</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19129</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16931</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16908</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1491</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48134</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27431</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16931</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18650</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5502</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>56114</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2513; 22886</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9103</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>632; 3658</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2077; 24072</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8776; 34736</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7604; 31416</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7595; 30583</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>647; 3150</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2241; 6032</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30692; 75699</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14799; 47759</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7927; 30865</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9556; 31729</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>937; 3841</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3536; 8477</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>36570; 89587</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10913</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10926</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7417</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25986</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25910</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26547</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5639</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44898</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>30802</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36824</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37473</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3758</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>8099</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>52315</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14855</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3935; 23620</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3400; 22162</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>298; 3026</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1198; 4276</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1890; 20380</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15228; 44584</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14765; 43661</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15790; 41631</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1351; 4325</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3763; 7973</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>28845; 67499</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>19339; 50944</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24003; 58373</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>23793; 56571</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2137; 6073</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5757; 10981</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>34498; 77153</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10688</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9943</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1237</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45835</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26919</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20466</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5151</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5062</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>57158</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>50127</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>37607</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>30410</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>8282</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>63938</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14843</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3469; 21553</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3447; 20986</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>459; 2918</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1672; 5039</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1919; 18524</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30288; 68667</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14173; 43812</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8647; 39312</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3424; 7540</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3308; 7266</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>35825; 84837</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>32576; 75703</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>22991; 56650</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>16508; 49761</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>4295; 9069</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5960; 11042</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>42370; 95840</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16032</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29892</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12411</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19123</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>76086</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>58196</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>64177</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7209</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>99545</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>92118</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>88088</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>76588</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>6564</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>8951</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>118668</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5486; 35276</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13496; 63602</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3642; 31924</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>442; 3621</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>557; 4031</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6769; 41721</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48801; 115129</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36167; 87223</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>37799; 115979</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2898; 8583</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4171; 11265</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>61141; 154867</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>60053; 133353</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>60357; 128102</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>47198; 131813</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>3796; 9947</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>5673; 13676</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>79305; 171177</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>36395</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>39839</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9623</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>52722</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>180991</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>129934</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>134987</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>15308</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>24012</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>300959</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>217387</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>184720</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>174826</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>19778</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>33635</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>353681</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20818; 59726</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33515; 90966</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24613; 62645</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2560; 7496</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6595; 13482</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30854; 81916</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>141845; 240027</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>96592; 169210</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>100939; 196356</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11601; 20069</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19257; 29358</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>245866; 376216</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>173173; 275173</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>147122; 232540</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>133144; 238466</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>15864; 25149</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>27962; 40013</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>288285; 447133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
